--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -43,180 +43,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 103: Yatırım Yönetimi (3. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
-Derslik 104: Sermaye Piyasaları ve Menkul Kıymetler Analizi (Muhasebe ve Finansman İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 110: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
-Derslik 202: Stok Yönetimi (Üretim Yönetimi Tezli) - Doç. Dr. Aydın KOÇAK
-Derslik 204: Örgüt Sosyolojisi (Yönetim Bilimi ve Organizasyon Tezli) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: Örgütsel Davranış (İşletme Tezli) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 210: System Analysis and Design (4. Sınıf) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 302: Türk Dili I (1. Sınıf) - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 102: Pazarlama Yönetimi (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Keti VENTURA
-Derslik 104: Üretim İşlemler Stratejisi (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Haluk SOYUER
-Derslik 111: Yönetim Muhasebesi (2. Sınıf) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
-Derslik 203: Değişim Yönetimi ve Yönetim Danışmanlığı (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. Derya İLİC
-Derslik 204: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208: E-Pazarlama (İşletme Tezli) - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Ticaret Hukuku (İşletme İ.Ö. Tezsiz) - Doç. Dr. Sema AYDIN
-Derslik 103: Matematik-I (Tek) (1. Sınıf) - ÖĞRETMEN 1
-Derslik 201: Lojistik ve Tedarik Zincirinde Güncel Konular (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202: İleri Örgütsel Davranış (Yönetim ve Organizasyon Doktora) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 205: İşletme Hukuku (3. Sınıf) - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Pazarlama Kuramı (İşletme Doktora) - Prof. Dr. G. Nazan GÜNAY
-Derslik 301: Üretim Çizelgeleme (İşletme Tezli) - Prof. Dr. Murat KOCAMAZ
-Derslik 302: Örgütler ve Yönetim (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Sürdürülebilir Pazarlama (3. Sınıf) - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 202: Ticaret Hukuku (Tasfiye) (0. Sınıf) - Doç. Dr. Sema AYDIN
-Derslik 203: Pazarlamada Güncel Konular (İşletme Tezli) - Prof. Dr. Keti VENTURA
-Derslik 208: İş Analitiğinde Sayısal Yöntemler (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. İnanç KABASAKAL
-Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik (Üretim Yönetimi Tezli) - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Stratejik Stok Yönetimi (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Doç. Dr. Aydın KOÇAK
-Derslik 204: Matematik-I (Çift) (1. Sınıf) - ÖĞRETMEN 2
-Derslik 205: Yönetim Geliştirme (3. Sınıf) - Prof. Dr. Derya İLİC
-Derslik 211: E-Pazarlama (Pazarlama Tezli) - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 303: Pazarlama Yönetimi (İşletme Tezli) - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 103: Enformetri (3. Sınıf) - Doç. Dr. Haydar YALÇIN
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Örgüt Sosyolojisi (İşletme Tezli) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Marketing Management I (2. Sınıf) - Prof. Dr. G. Nazan GÜNAY
-Derslik 210: Üretimde Yenilik ve Teknoloji Yönetimi (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Prof. Dr. Haluk SOYUER
-Derslik 211: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz) - Prof. Dr. Dilek DEMİRHAN
-Derslik 302: Finansal Muhasebe (Muhasebe ve Finansman İ.Ö. Tezsiz) - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Teknoloji ve Sanayi Dinamikleri (3. Sınıf) - Prof. Dr. Haluk SOYUER
-Derslik 108: Tüketici Davranışları (İşletme Tezli) - Prof. Dr. G. Nazan GÜNAY
-Derslik 204: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Stratejik Finans Yönetimi (Muhasebe ve Finansman İ.Ö. Tezsiz) - Prof. Dr. Dilek DEMİRHAN
-Derslik 210: Endüstriyel Pazarlama (Pazarlama Tezli) - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Organizational Behavior (Çift) (2. Sınıf) - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103: Introduction to Microeconomics (1. Sınıf) - ÖĞRETMEN 3
-Derslik 110: Retailing I (4. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202: Vadeli İşlem Piyasaları (Muhasebe ve Finansman İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 203: Tüketici Davranışları (Pazarlama Tezli) - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Stratejik Yönetimde Güncel Konular (Yönetim ve Organizasyon Doktora) - Prof. Dr. Burak ÇAPRAZ
-Derslik 209: Stok Yönetimi (İşletme Tezli) - Doç. Dr. Aydın KOÇAK
-Derslik 302: İnsan Kaynakları Yönetimi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303: Consumer Behavior (Tek) (3. Sınıf) - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Vestel İşletmecilik Seminerleri I (4. Sınıf) - Prof. Dr. G. Nazan GÜNAY
-Derslik 109: Yönetim Bilişim Sistemleri (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Proje Yönetimi (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. Aydın KOÇAK
-Derslik 210: Stratejik Pazarlama Yönetimi (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 211: Girişimcilik ve KOBİ Yönetimi (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 302: Örgütsel Davranış (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf) - Prof. Dr. Türker SUSMUŞ
-Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf) - ÖĞRETMEN 5
-Derslik 202: Operations Management I (2. Sınıf) - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik (İşletme Tezli) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: Uluslararası Finansman (Muhasebe ve Finansman İ.Ö. Tezsiz) - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203: Pazarlamada Güncel Konular (Pazarlama Tezli) - Prof. Dr. Keti VENTURA
-Derslik 205: Business I (Tasfiye) (0. Sınıf) - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 208: Bilgi Yönetimi (3. Sınıf) - Doç. Dr. İnanç KABASAKAL
-Derslik 303: Perakendecilik (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102: Üretim ve İşlemler Yönetimi (İşletme Tezli) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: Kurumsal Koçluk ve Mentorluk (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 205: Araştırma Yöntemleri (Tek) (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 209: Endüstriyel Pazarlama (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Keti VENTURA
-Derslik 211: Hizmet Pazarlaması (Pazarlama Tezli) - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303: Veri Odaklı Üretim Planlama Stratejileri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. Burak ÇAPRAZ
-Derslik 105: Consumer Behavior (Çift) (3. Sınıf) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 108: Hizmet Pazarlaması (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Aykan CANDEMİR
-Derslik 109: Seminer (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Prof. Dr. Haluk SOYUER
-Derslik 201: Modelleme ve Optimizasyon (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: İşletmeye Giriş (0. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
-Derslik 204: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 301: Yönetimde Güncel Yaklaşımlar (İşletme Tezli) - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 103: Hizmet Pazarlaması (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Aykan CANDEMİR
-Derslik 104: Yönetimde Güncel Yaklaşımlar (Yönetim Bilimi ve Organizasyon Tezli) - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 105: Global Marketing (Çift) (4. Sınıf) - Prof. Dr. Keti VENTURA
-Derslik 108: Ağ Modelleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Murat KOCAMAZ
-Derslik 111: Kariyer Planlama (1. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 205: Örgütler ve Yönetim (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. Derya İLİC
-Derslik 209: Stratejik Yatırım Kararları ve Planlama (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: Organizational Behavior (Tek) (2. Sınıf) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik (Yönetim ve Organizasyon Doktora) - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 302: Endüstriyel Pazarlama (İşletme Tezli) - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 303: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf) - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 102: Business (1. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 103: Üretim Çizelgeleme (Üretim Yönetimi Tezli) - Prof. Dr. Murat KOCAMAZ
-Derslik 111: Muhasebe I (2. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
-Derslik 204: Reklamcılık Yönetimi (3. Sınıf) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 208: Pazarlama Yönetimi (Pazarlama Tezli) - Prof. Dr. Aykan CANDEMİR
-Derslik 209: Teknoloji Yönetiminin Esasları (İşletme Tezli) - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 109: Akıllı Karar Modelleri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Hizmet Pazarlaması (İşletme Tezli) - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 208: Financial Management I (3. Sınıf) - Prof. Dr. Dilek DEMİRHAN
-Derslik 303: Tüketici Davranışları A (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 103: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Haluk SOYUER
-Derslik 110: İleri Üretim Çizelgeleme (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Murat KOCAMAZ
-Derslik 111: Sosyoloji (1. Sınıf) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: Yönetimin Felsefi Temelleri (Yönetim ve Organizasyon Doktora) - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Borçlar Hukuku (3. Sınıf) - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 204: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Tüketici Davranışları B (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. G. Nazan GÜNAY
-Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik (İşletme Tezli) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik (Muhasebe ve Finansman İ.Ö. Tezsiz) - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 111: Operations Research I (3. Sınıf) - Prof. Dr. Murat KOCAMAZ
-Derslik 203: İleri Örgüt Sosyolojisi (Yönetim ve Organizasyon Doktora) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Mali Tablolar Analizi (3. Sınıf) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 211: Örgütsel Davranış (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Dijital Dönüşümün Yönetimi (İşletme Tezli) - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Yatırım Analizi ve Portföy Yönetimi (İşletme Tezli) - Araş. Gör. Dr. Özgür BABACAN
-Derslik 103: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar (Yönetim ve Organizasyon Doktora) - Prof. Dr. Derya İLİC
-Derslik 108: Hukukun Temel Kavramları (Örgün + İ.Ö.) (1. Sınıf) - Doç. Dr. Sema AYDIN
-Derslik 111: Muhasebe II (Tasfiye) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
-Derslik 202: Araştırma Yöntemleri (Çift) (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 205: Yönetim Atölyesi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Haluk SOYUER
-Derslik 211: Global Marketing (Tek) (4. Sınıf) - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Business (Örgün + İ.Ö) (0. Sınıf) - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Burcu ARACIOĞLU
-Derslik 201: Malzeme ve Stok Yönetimi (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Doç. Dr. Aydın KOÇAK
-Derslik 203: Human Resources Management (4. Sınıf) - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Management Consultancy (3. Sınıf) - Prof. Dr. Derya İLİC
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik (Pazarlama Tezli) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 210: İşlemler Yönetimi (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Haluk SOYUER
-Derslik 211: İstatistik I (2. Sınıf) - Doç. Dr. İnanç KABASAKAL</t>
+    <t>Derslik 101: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 103: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 104: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 204: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 208: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 104: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 111: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 202: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 205: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 110: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 203: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 204: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 208: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 102: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 203: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 303: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 101: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 203: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 205: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 303: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 103: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 105: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 202: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 203: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 208: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 101: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 104: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 109: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 210: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 108: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
+Derslik 208: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 301: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 302: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 303: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 205: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 210: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 301: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 103: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 108: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 302: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 101: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 102: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 108: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 111: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 302: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 202: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 102: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 103: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 302: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 203: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 208: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 209: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 303: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 102: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 104: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 109: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 202: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 104: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 111: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 303: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 103: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 110: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 301: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 302: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 108: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 210: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 104: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 111: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 208: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 302: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 303: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 110: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 203: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 204: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR</t>
   </si>
 </sst>
 </file>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -43,184 +43,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 101: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 103: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 104: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 105: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 208: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 104: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 111: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+    <t>Derslik 104: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 303: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 108: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 210: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 105: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 108: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 111: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 208: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 111: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 303: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 104: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 203: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 210: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 302: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 303: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 102: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 105: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 109: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 110: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 208: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 101: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 108: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 203: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 209: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 302: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 303: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 108: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 204: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 301: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 303: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 109: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 110: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 201: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 205: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 111: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 201: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 208: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 303: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 104: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 109: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ
+Derslik 201: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 203: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 208: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 209: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 201: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 210: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 201: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 203: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 204: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 205: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 301: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 103: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
+Derslik 110: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 210: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 202: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 209: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 105: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 202: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 204: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 111: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
+Derslik 205: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 209: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 211: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 103: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 110: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 303: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
+Derslik 104: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
 Derslik 202: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 205: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 110: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 204: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 208: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 102: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 203: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 303: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 101: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 203: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 205: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 303: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 103: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 105: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ
-Derslik 202: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 208: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 101: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 104: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 109: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 210: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 108: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
-Derslik 208: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 301: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 302: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 303: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 205: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 210: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 301: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 103: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 108: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
-Derslik 302: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 101: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 102: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 108: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 111: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 302: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 201: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 202: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 103: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 302: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 203: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 208: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 209: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 303: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 102: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 104: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 109: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 202: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 104: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 111: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 205: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 103: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 301: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 302: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 108: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 210: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 104: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 111: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 208: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 302: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 303: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 110: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 203: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 204: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR</t>
+Derslik 204: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 210: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 104: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 105: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 302: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 303: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
   </si>
 </sst>
 </file>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Genel Ders Programı" sheetId="1" r:id="rId1"/>
+    <sheet name="Rapor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>09:00-12:00</t>
   </si>
@@ -43,184 +44,193 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 104: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 303: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 104: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 108: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 210: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 105: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 108: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 111: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 208: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 111: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 303: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 104: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 203: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 210: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 302: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 303: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 102: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 105: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 109: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 110: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 208: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 101: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 108: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 203: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 209: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ
-Derslik 302: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+    <t>Derslik 105: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 203: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 204: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 302: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 104: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 109: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 110: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 111: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 208: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 301: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 108: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 111: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 201: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 202: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 203: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 109: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 111: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 209: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 303: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 103: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 108: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
+Derslik 208: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 209: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 108: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 109: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 203: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
 Derslik 303: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
   </si>
   <si>
-    <t>Derslik 102: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 108: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
+    <t>Derslik 101: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 103: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 104: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
+Derslik 108: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 202: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 204: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 109: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 301: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 210: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
+Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 301: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 302: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 104: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 201: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ
+Derslik 204: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 201: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 204: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 302: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 303: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 105: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 204: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 208: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 111: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 201: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 211: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 301: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 105: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 105: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 109: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 202: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 110: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 203: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
 Derslik 204: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 301: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 303: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 109: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 110: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 201: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 205: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 201: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 208: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 303: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 104: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 109: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ
-Derslik 201: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 203: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 209: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 201: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 210: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 105: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 201: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 203: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 204: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 205: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 301: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 103: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
-Derslik 110: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 210: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 201: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 202: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 209: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 204: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 108: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 111: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
-Derslik 205: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 209: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 211: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 103: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 110: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 303: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
-Derslik 104: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
-Derslik 202: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 204: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 210: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 103: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 104: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 105: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 302: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 303: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 301: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 110: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 204: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 208: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 210: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 201: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 205: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 208: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 111: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 202: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 203: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 204: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Kriter</t>
+  </si>
+  <si>
+    <t>Değer</t>
+  </si>
+  <si>
+    <t>Final Skor</t>
   </si>
 </sst>
 </file>
@@ -699,4 +709,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>5508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 105: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+    <t>Derslik 101: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 104: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 105: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 111: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 302: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 110: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 202: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
 Derslik 203: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 204: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 302: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 104: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 109: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 111: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
-Derslik 208: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 301: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 108: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 111: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 201: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 202: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 203: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 109: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 111: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 209: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 303: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 101: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 103: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 108: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
-Derslik 208: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 108: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 109: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 204: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 208: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 303: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 103: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 211: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 301: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 302: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 108: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 201: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 211: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 203: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 208: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 110: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 205: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 108: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
+Derslik 302: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
+Derslik 303: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
 Derslik 303: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
   </si>
   <si>
-    <t>Derslik 101: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 103: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 104: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
-Derslik 108: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 202: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 109: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
-Derslik 301: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 105: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 210: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
-Derslik 211: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 301: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 302: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 104: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 201: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ
-Derslik 204: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 201: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+    <t>Derslik 102: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 204: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 302: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 104: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 109: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 111: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
 Derslik 204: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 302: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 303: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 105: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 204: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 208: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 111: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 201: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 211: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 301: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 105: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 109: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 202: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 110: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 209: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
+Derslik 109: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 110: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 111: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 208: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 104: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ
+Derslik 202: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 102: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 104: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 108: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 303: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 105: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 210: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 211: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 102: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 104: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 109: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
+Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 301: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 303: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 208: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 211: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 102: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 110: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 211: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 302: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 303: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 105: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 109: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 201: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 301: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 302: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
 Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 203: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 204: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 301: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 110: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 208: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 210: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
 Derslik 201: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 205: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 208: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 211: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 111: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 202: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 203: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
-Derslik 204: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL</t>
+Derslik 204: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 302: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 101: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 204: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 208: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 209: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 301: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 103: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 205: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 210: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ
+Derslik 303: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -735,7 +735,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5508</v>
+        <v>4518</v>
       </c>
     </row>
   </sheetData>
